--- a/SavePaper/SavePaper/bin/Release/spese/2022.xlsx
+++ b/SavePaper/SavePaper/bin/Release/spese/2022.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="36">
   <si>
     <t>MOVENTE</t>
   </si>
@@ -57,43 +57,46 @@
     <t>Febbraio:</t>
   </si>
   <si>
-    <t>noleggio attrezzatura</t>
-  </si>
-  <si>
-    <t>negozio sportivo</t>
-  </si>
-  <si>
-    <t>11/2/2022</t>
-  </si>
-  <si>
-    <t>scarpe</t>
-  </si>
-  <si>
-    <t>casco</t>
-  </si>
-  <si>
-    <t>guanti tecnici</t>
-  </si>
-  <si>
     <t>Marzo:</t>
   </si>
   <si>
+    <t>motivazione</t>
+  </si>
+  <si>
+    <t>venditore</t>
+  </si>
+  <si>
+    <t>4/3/2022</t>
+  </si>
+  <si>
+    <t>cose</t>
+  </si>
+  <si>
+    <t>noleggio</t>
+  </si>
+  <si>
+    <t>noleggiatore</t>
+  </si>
+  <si>
+    <t>prodotto noleggiato</t>
+  </si>
+  <si>
+    <t>Aprile:</t>
+  </si>
+  <si>
     <t>spesa</t>
   </si>
   <si>
-    <t>super mercato</t>
-  </si>
-  <si>
-    <t>3/3/2022</t>
-  </si>
-  <si>
-    <t>pasta</t>
+    <t>esselunga</t>
+  </si>
+  <si>
+    <t>22/4/2022</t>
+  </si>
+  <si>
+    <t>pasta al sugo</t>
   </si>
   <si>
     <t>frutta fresca</t>
-  </si>
-  <si>
-    <t>Aprile:</t>
   </si>
   <si>
     <t>Maggio:</t>
@@ -618,8 +621,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a6d8ae4a-17e6-4829-9b26-e5e1d438fce5}">
-  <dimension ref="A1:E65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ab190b9f-f3a6-401e-86fa-3fc6a63bdf2e}">
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -694,369 +697,370 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12.75">
-      <c r="A10" t="s">
+    <row r="10" spans="4:5" ht="12.75">
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="12.75">
+      <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="12.75">
+      <c r="A14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="12.75">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="4:5" ht="12.75">
-      <c r="D11" t="s">
+      <c r="D15" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E15" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="4:5" ht="12.75">
-      <c r="D12" t="s">
+    <row r="16" spans="1:5" ht="12.75">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="4:5" ht="12.75">
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4">
-        <f>SUM(E10:E12)</f>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="12.75">
-      <c r="A16" s="5" t="s">
+      <c r="B16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="12.75">
-      <c r="A17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="12.75">
-      <c r="A18" t="s">
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="s">
+      <c r="E16" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" ht="12.75">
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="4">
+        <f>SUM(E15:E16)</f>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="12.75">
+      <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="12.75">
+      <c r="A21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="12.75">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="D18" t="s">
+      <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" ht="12.75">
-      <c r="D19" t="s">
+      <c r="C22" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" ht="12.75">
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="4">
-        <f>SUM(E18:E19)</f>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="12.75">
-      <c r="A23" s="5" t="s">
+      <c r="D22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="12.75">
-      <c r="A24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="4:5" ht="12.75">
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="4">
+      <c r="E22" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" ht="12.75">
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" ht="12.75">
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="4">
+        <f>SUM(E22:E23)</f>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="12.75">
+      <c r="A27" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="12.75">
+      <c r="A28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" ht="12.75">
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="12.75">
-      <c r="A28" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="12.75">
-      <c r="A29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="4:5" ht="12.75">
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="4">
+    <row r="32" spans="1:1" ht="12.75">
+      <c r="A32" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="12.75">
+      <c r="A33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" ht="12.75">
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="12.75">
-      <c r="A33" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="12.75">
-      <c r="A34" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="4:5" ht="12.75">
-      <c r="D35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="4">
+    <row r="37" spans="1:1" ht="12.75">
+      <c r="A37" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="12.75">
+      <c r="A38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" ht="12.75">
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="12.75">
-      <c r="A38" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="12.75">
-      <c r="A39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="4:5" ht="12.75">
-      <c r="D40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="4">
+    <row r="42" spans="1:1" ht="12.75">
+      <c r="A42" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="12.75">
+      <c r="A43" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5" ht="12.75">
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="12.75">
-      <c r="A43" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="12.75">
-      <c r="A44" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="4:5" ht="12.75">
-      <c r="D45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="4">
+    <row r="47" spans="1:1" ht="12.75">
+      <c r="A47" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="12.75">
+      <c r="A48" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" ht="12.75">
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="12.75">
-      <c r="A48" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="12.75">
-      <c r="A49" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="4:5" ht="12.75">
-      <c r="D50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="4">
+    <row r="52" spans="1:1" ht="12.75">
+      <c r="A52" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="12.75">
+      <c r="A53" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" ht="12.75">
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="12.75">
-      <c r="A53" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="12.75">
-      <c r="A54" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="4:5" ht="12.75">
-      <c r="D55" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="4">
+    <row r="57" spans="1:1" ht="12.75">
+      <c r="A57" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="12.75">
+      <c r="A58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5" ht="12.75">
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="12.75">
-      <c r="A58" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="12.75">
-      <c r="A59" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="4:5" ht="12.75">
-      <c r="D60" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="12.75">
-      <c r="A63" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="12.75">
-      <c r="A64" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="4:5" ht="12.75">
-      <c r="D65" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="4">
+    <row r="62" spans="1:1" ht="12.75">
+      <c r="A62" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="12.75">
+      <c r="A63" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="4:5" ht="12.75">
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1067,7 +1071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{eb6ab48c-78ba-4b32-9332-9fa43fcf543a}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01cb0c46-25a1-4681-8c6e-2d0f69eb2433}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
@@ -1076,7 +1080,7 @@
   <sheetData>
     <row r="5" spans="1:1" ht="23.25" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
